--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS01\Desktop\GitSample\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56040261-3143-49F7-AC4D-794F4A5CEC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3765" yWindow="3780" windowWidth="21600" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="1">
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +75,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +352,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS01\Desktop\GitSample\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56040261-3143-49F7-AC4D-794F4A5CEC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE86E9A-093F-43B4-A963-E7341560372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3780" windowWidth="21600" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8670" windowWidth="28800" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="3">
   <si>
     <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -353,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -432,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -546,6 +554,11 @@
       </c>
       <c r="I8" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS01\Desktop\GitSample\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE86E9A-093F-43B4-A963-E7341560372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9AE3CD-70A0-4938-8A6A-20C5133415AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8670" windowWidth="28800" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8670" windowWidth="28800" windowHeight="8730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="4">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
@@ -36,6 +38,10 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -67,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -75,12 +81,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -363,7 +385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -565,4 +587,163 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7E467B-B3CE-4457-A953-215A56C16C45}">
+  <dimension ref="B2:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="1">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <v>101</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>107</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5A4CDD-2870-45F8-ABF9-C97F1BE91BE2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS01\Desktop\GitSample\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9AE3CD-70A0-4938-8A6A-20C5133415AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE80648-05AF-4183-870C-CFD56CE9CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8670" windowWidth="28800" windowHeight="8730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8670" windowWidth="28800" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="5">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -385,8 +389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -531,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -594,7 +598,7 @@
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -668,7 +672,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -729,17 +735,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5A4CDD-2870-45F8-ABF9-C97F1BE91BE2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS01\Desktop\GitSample\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE80648-05AF-4183-870C-CFD56CE9CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614BAE65-8A1D-46CB-BE48-E296CA701B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="8670" windowWidth="28800" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="6">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>main</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -390,7 +394,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -402,7 +406,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>

--- a/テスト.xlsx
+++ b/テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STS01\Desktop\GitSample\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE80648-05AF-4183-870C-CFD56CE9CF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788D5161-6B8A-46EB-932D-3E0BDC8D7EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="8670" windowWidth="28800" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="6">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKOKOK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -390,7 +394,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -579,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
